--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -44,7 +44,43 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:13 AM</t>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 5 August, 2025 9:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +290,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +302,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +710,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>22.050000000000001</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +820,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -44,24 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
     <t>0:9</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
     <t>7.0500</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -77,10 +101,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 5 August, 2025 9:16 AM</t>
+    <t>Tuesday, 5 August, 2025 9:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,53 +781,119 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>22.050000000000001</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>91.760000000000005</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +912,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:21 AM</t>
+    <t>Tuesday, 5 August, 2025 9:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -86,22 +86,34 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:47 AM</t>
+    <t>Tuesday, 5 August, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -862,38 +874,71 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>91.760000000000005</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>116.76000000000001</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +967,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -113,7 +125,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:03 AM</t>
+    <t>Tuesday, 5 August, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -804,7 +816,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -837,7 +849,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -859,18 +871,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -879,20 +891,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -903,42 +915,75 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>116.76000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>31</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>182.09999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1017,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:04 AM</t>
+    <t>Tuesday, 5 August, 2025 10:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:08 AM</t>
+    <t>Tuesday, 5 August, 2025 10:09 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>7.0500</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -904,15 +916,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>22</v>
@@ -924,20 +936,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -952,38 +964,71 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>182.09999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1067,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>41.00</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -137,7 +152,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:09 AM</t>
+    <t>Tuesday, 5 August, 2025 10:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -828,7 +843,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -837,14 +852,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -854,14 +869,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -870,14 +885,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -894,7 +909,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -927,7 +942,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -943,24 +958,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,66 +984,132 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>39</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>40</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c t="s" r="Q13" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>278.10000000000002</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>40</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>326.10000000000002</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>49</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1153,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:13 AM</t>
+    <t>Tuesday, 5 August, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -150,6 +162,15 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
   </si>
   <si>
     <t>Tuesday, 5 August, 2025 10:15 AM</t>
@@ -892,7 +913,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -902,14 +923,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -918,14 +939,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -942,7 +963,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -958,7 +979,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -968,14 +989,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -984,14 +1005,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1001,11 +1022,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1030,15 +1051,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1050,20 +1071,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1078,38 +1099,104 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>326.10000000000002</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>48</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>44</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>49</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>27</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>44</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>347.30000000000001</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1163,10 +1250,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -173,7 +173,13 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:15 AM</t>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 5 August, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1165,38 +1171,71 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>347.30000000000001</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>44</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>49</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>362.30000000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1299,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:20 AM</t>
+    <t>Tuesday, 5 August, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -131,12 +140,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -179,7 +182,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:22 AM</t>
+    <t>Tuesday, 5 August, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,7 +955,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -985,7 +988,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -995,14 +998,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1011,14 +1014,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1028,14 +1031,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,14 +1047,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1061,11 +1064,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1077,28 +1080,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1110,28 +1113,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1143,28 +1146,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1176,66 +1179,99 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>362.30000000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>56</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>45</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>50</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>458.30000000000001</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
         <v>58</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>59</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1304,10 +1340,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -119,6 +134,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -146,9 +173,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -182,7 +206,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:23 AM</t>
+    <t>Tuesday, 5 August, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -928,18 +952,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -948,14 +972,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -965,14 +989,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -981,14 +1005,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -998,11 +1022,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1014,14 +1038,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1031,14 +1055,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1047,14 +1071,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,11 +1088,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1080,14 +1104,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1097,14 +1121,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1113,28 +1137,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1146,28 +1170,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1186,21 +1210,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1212,66 +1236,132 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>458.30000000000001</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>57</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>32</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>28</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>28</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>58</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>59</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>562.29999999999995</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>65</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>66</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>67</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1345,10 +1435,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -149,13 +149,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:9</t>
+    <t>0:8</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
@@ -206,7 +206,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:43 AM</t>
+    <t>Tuesday, 5 August, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1128,7 +1128,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="P22" s="13">
-        <v>562.29999999999995</v>
+        <v>569.35000000000002</v>
       </c>
       <c r="Q22" s="13"/>
     </row>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -134,18 +134,6 @@
     <t>41.0000</t>
   </si>
   <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -206,7 +194,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:50 AM</t>
+    <t>Tuesday, 5 August, 2025 10:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1095,7 +1083,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1111,7 +1099,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1121,14 +1109,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,14 +1125,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1154,11 +1142,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1170,28 +1158,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1243,7 +1231,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1253,11 +1241,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1269,14 +1257,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1286,82 +1274,49 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="7">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c t="s" r="C21" s="8">
+      <c r="P21" s="13">
+        <v>477.35000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>62</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
         <v>63</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c t="s" r="H21" s="9">
-        <v>64</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c t="s" r="L21" s="10">
-        <v>28</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c t="s" r="N21" s="8">
-        <v>58</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c t="s" r="P21" s="11">
-        <v>59</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>569.35000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>65</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>66</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>67</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1440,15 +1395,10 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -134,6 +134,12 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -194,7 +200,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:55 AM</t>
+    <t>Tuesday, 5 August, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1066,7 +1072,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1076,14 +1082,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1092,14 +1098,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1109,14 +1115,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1125,14 +1131,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,11 +1148,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1171,15 +1177,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1191,14 +1197,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1208,11 +1214,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1224,14 +1230,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1241,11 +1247,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1257,14 +1263,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1274,49 +1280,82 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>477.35000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>62</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>28</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>56</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>573.35000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
         <v>63</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>64</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>65</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1395,10 +1434,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 500MG VIAL 100 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -152,15 +164,36 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -185,6 +218,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>64:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -194,13 +239,25 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:57 AM</t>
+    <t>Tuesday, 5 August, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -924,7 +981,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -946,18 +1003,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,20 +1023,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -990,7 +1047,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1006,7 +1063,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1016,14 +1073,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1032,14 +1089,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1049,11 +1106,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1065,7 +1122,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1082,14 +1139,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,14 +1155,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1115,14 +1172,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1138,7 +1195,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1148,14 +1205,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1164,14 +1221,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1181,14 +1238,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1197,28 +1254,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1230,31 +1287,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1263,28 +1320,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1309,53 +1366,251 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>573.35000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>63</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>64</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>65</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>32</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>32</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>36</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>32</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>36</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>32</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>36</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>32</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>67</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>80</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>81</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>32</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>67</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>695.75</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>82</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>83</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>84</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1439,10 +1694,40 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -176,6 +188,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -257,7 +278,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:05 AM</t>
+    <t>Tuesday, 5 August, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1282,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1271,14 +1292,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1287,14 +1308,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,11 +1325,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1320,14 +1341,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1337,11 +1358,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1353,31 +1374,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1386,28 +1407,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1419,14 +1440,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1436,11 +1457,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1452,14 +1473,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1492,7 +1513,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1502,11 +1523,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1518,7 +1539,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1535,11 +1556,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1551,14 +1572,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1568,49 +1589,115 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>695.75</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>82</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>83</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>84</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>36</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>32</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>74</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>88</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>32</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>74</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>766.53499999999997</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>90</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>91</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1724,10 +1811,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:06 AM</t>
+    <t>Tuesday, 5 August, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -278,7 +287,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:07 AM</t>
+    <t>Tuesday, 5 August, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1216,7 +1225,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1242,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1268,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,11 +1301,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1308,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1348,7 +1357,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1358,14 +1367,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,14 +1383,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1391,14 +1400,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,14 +1416,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1424,14 +1433,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,28 +1449,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1473,14 +1482,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1490,11 +1499,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1506,14 +1515,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1523,11 +1532,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1539,14 +1548,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,11 +1631,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1655,49 +1664,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>766.53499999999997</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>89</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>90</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>91</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>32</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>77</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>805.53499999999997</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1821,10 +1863,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -287,7 +296,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:15 AM</t>
+    <t>Tuesday, 5 August, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1176,7 +1185,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1206,10 +1215,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1218,7 +1227,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1235,14 +1244,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1258,7 +1267,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1268,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1284,14 +1293,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1301,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1317,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1334,11 +1343,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1350,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1390,7 +1399,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1433,14 +1442,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1458,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,14 +1475,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1482,28 +1491,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1515,14 +1524,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1532,11 +1541,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1548,14 +1557,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1565,11 +1574,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1581,14 +1590,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,11 +1673,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1697,49 +1706,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>805.53499999999997</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>92</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>93</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>94</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>32</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>80</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>827.53499999999997</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1868,10 +1910,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:16 AM</t>
+    <t>Tuesday, 5 August, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -89,6 +89,30 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -107,9 +131,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -158,7 +179,16 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
-    <t>48.00</t>
+    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>8.9100</t>
   </si>
   <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
@@ -188,9 +218,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -260,13 +287,13 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>64:0</t>
+    <t>63:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -275,7 +302,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -290,13 +317,16 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:27 AM</t>
+    <t>Tuesday, 5 August, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,15 +1072,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1062,31 +1092,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1095,14 +1125,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1112,11 +1142,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1128,20 +1158,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1168,7 +1198,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1178,11 +1208,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1194,14 +1224,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1211,11 +1241,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1227,14 +1257,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,14 +1274,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1260,7 +1290,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1277,11 +1307,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1293,14 +1323,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1310,14 +1340,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,14 +1356,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1343,11 +1373,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1359,14 +1389,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1376,14 +1406,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1392,14 +1422,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,14 +1439,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1425,14 +1455,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,14 +1472,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1458,14 +1488,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,11 +1505,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1491,14 +1521,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,14 +1538,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,28 +1554,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1570,7 +1600,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1581,7 +1611,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1597,21 +1627,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1623,28 +1653,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1656,28 +1686,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1689,31 +1719,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1722,66 +1752,165 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>43</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>28</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>99</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>827.53499999999997</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>96</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>97</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>43</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>28</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>89</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>104</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>28</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>89</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>893.60500000000002</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>106</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +2044,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -137,6 +149,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -152,9 +173,6 @@
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -215,9 +233,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -302,7 +317,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -311,7 +326,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -326,7 +344,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:30 AM</t>
+    <t>Tuesday, 5 August, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1149,7 +1167,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1171,7 +1189,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1182,7 +1200,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1204,7 +1222,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1215,7 +1233,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1231,7 +1249,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1248,7 +1266,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1264,7 +1282,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1274,11 +1292,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1290,14 +1308,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,7 +1325,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1330,7 +1348,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1340,14 +1358,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,14 +1374,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1373,14 +1391,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1389,7 +1407,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1406,14 +1424,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1422,14 +1440,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1439,14 +1457,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1455,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1472,14 +1490,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1488,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1505,14 +1523,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1521,14 +1539,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1538,11 +1556,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1554,14 +1572,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1571,14 +1589,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1587,14 +1605,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1627,7 +1645,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1637,11 +1655,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1666,7 +1684,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1677,7 +1695,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1693,21 +1711,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1719,14 +1737,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1736,14 +1754,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1802,14 +1820,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1858,7 +1876,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1868,49 +1886,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>50</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>28</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>94</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>110</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>28</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>94</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>893.60500000000002</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>105</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>106</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>107</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1013.745</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2059,10 +2143,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:35 AM</t>
+    <t>Tuesday, 5 August, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -218,6 +218,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -317,7 +329,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1530,7 +1545,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1546,7 +1561,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,7 +1604,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1612,7 +1627,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,11 +1637,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1711,7 +1726,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,28 +1752,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1827,7 +1842,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1843,7 +1858,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,7 +1884,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1902,7 +1917,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1952,49 +1967,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>115</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>28</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>98</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1013.745</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>111</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>112</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>113</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1026.3050000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>116</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>117</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>118</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2153,10 +2201,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:36 AM</t>
+    <t>Tuesday, 5 August, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
@@ -230,6 +242,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -269,6 +290,18 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -329,10 +362,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -359,7 +392,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:45 AM</t>
+    <t>Tuesday, 5 August, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,7 +1462,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1439,14 +1472,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1455,14 +1488,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1472,14 +1505,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1495,7 +1528,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1505,14 +1538,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1545,7 +1578,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1578,7 +1611,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1594,7 +1627,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1604,11 +1637,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1620,14 +1653,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1637,14 +1670,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1653,7 +1686,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1670,7 +1703,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1693,7 +1726,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1703,14 +1736,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1719,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1736,11 +1769,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1752,14 +1785,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1769,14 +1802,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,28 +1818,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1818,31 +1851,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,31 +1884,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1884,14 +1917,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1908,7 +1941,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1917,14 +1950,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1941,7 +1974,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1950,14 +1983,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1967,11 +2000,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -1983,14 +2016,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2000,49 +2033,148 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>119</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>50</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>28</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>120</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>50</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>28</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>109</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>126</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>28</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>109</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1026.3050000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>116</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>117</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>118</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1145.095</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>127</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>128</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>129</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2206,10 +2338,25 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:48 AM</t>
+    <t>Tuesday, 5 August, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -242,6 +242,12 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -392,7 +398,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 11:51 AM</t>
+    <t>Tuesday, 5 August, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1627,24 +1633,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1653,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1676,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1703,14 +1709,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1726,7 +1732,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1736,11 +1742,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1752,14 +1758,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1769,11 +1775,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1785,14 +1791,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,11 +1808,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1818,14 +1824,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1835,14 +1841,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1851,14 +1857,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1868,14 +1874,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1884,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,14 +1907,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,28 +1923,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1967,11 +1973,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1983,14 +1989,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2000,14 +2006,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2033,14 +2039,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2049,7 +2055,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,7 +2088,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2122,7 +2128,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2132,49 +2138,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>128</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>28</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>111</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1145.095</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>127</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>128</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1189.095</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>129</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>130</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>131</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2353,10 +2392,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 12:02 PM</t>
+    <t>Tuesday, 5 August, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -362,6 +362,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -386,6 +392,18 @@
     <t>6:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -398,7 +416,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 12:08 PM</t>
+    <t>Tuesday, 5 August, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2062,7 +2080,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2088,7 +2106,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2105,14 +2123,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2121,7 +2139,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2171,49 +2189,115 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1189.095</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>129</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>130</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>131</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>50</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>28</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>111</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>134</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>28</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>111</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1284.095</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>135</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>136</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>137</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2397,10 +2481,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -257,6 +257,12 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -275,6 +281,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -416,7 +431,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 12:24 PM</t>
+    <t>Tuesday, 5 August, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,7 +1732,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1727,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1743,14 +1758,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1783,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1793,11 +1808,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1809,31 +1824,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1859,11 +1874,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1948,7 +1963,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,11 +1973,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1987,7 +2002,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1998,7 +2013,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2014,21 +2029,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2090,11 +2105,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2106,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2130,7 +2145,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2205,7 +2220,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2255,49 +2270,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1284.095</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>135</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>136</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>50</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>28</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>116</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>138</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>139</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>28</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>116</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1544.095</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>140</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>141</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2491,10 +2572,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -278,7 +278,10 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>103.7400</t>
   </si>
   <si>
     <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
@@ -314,9 +317,6 @@
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
@@ -338,6 +338,15 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -431,7 +440,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 12:40 PM</t>
+    <t>Tuesday, 5 August, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,7 +1807,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1812,10 +1821,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1824,7 +1833,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1841,11 +1850,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,11 +1883,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1890,7 +1899,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1907,11 +1916,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1923,14 +1932,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2029,7 +2038,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,11 +2048,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2055,28 +2064,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2088,14 +2097,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,11 +2114,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2121,14 +2130,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2147,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,14 +2163,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,14 +2180,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,7 +2229,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,49 +2345,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>141</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>142</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>28</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>119</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1544.095</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>140</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>141</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>142</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1690.095</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>143</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>144</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>145</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2624,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 12:48 PM</t>
+    <t>Tuesday, 5 August, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -416,6 +416,12 @@
     <t>6:0</t>
   </si>
   <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
@@ -440,7 +446,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 12:49 PM</t>
+    <t>Tuesday, 5 August, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2312,11 +2318,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2345,14 +2351,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2368,7 +2374,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2382,45 +2388,78 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>144</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>28</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>119</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q46" s="12">
+      <c t="s" r="Q47" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1690.095</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>143</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>144</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1705.095</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
         <v>145</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>146</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>147</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2629,10 +2668,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -398,10 +398,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -446,7 +443,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 1:05 PM</t>
+    <t>Tuesday, 5 August, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2256,10 +2253,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,7 +2265,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2285,14 +2282,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>133</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,14 +2298,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2334,14 +2331,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,11 +2348,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2367,7 +2364,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2388,7 +2385,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2400,14 +2397,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2429,13 +2426,13 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="P48" s="13">
-        <v>1705.095</v>
+        <v>1715.095</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c t="s" r="A49" s="14">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2443,13 +2440,13 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c t="s" r="G49" s="15">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
       <c t="s" r="K49" s="17">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -407,9 +416,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>6:0</t>
   </si>
   <si>
@@ -443,7 +449,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 1:07 PM</t>
+    <t>Tuesday, 5 August, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1315,24 +1321,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1341,20 +1347,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1365,7 +1371,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1381,7 +1387,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,14 +1397,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1407,14 +1413,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1430,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1463,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1480,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1497,7 +1503,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1513,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,14 +1529,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1539,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,14 +1562,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,14 +1595,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1629,7 +1635,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1645,7 +1651,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,14 +1661,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1671,31 +1677,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,31 +1710,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1744,7 +1750,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1803,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1843,24 +1849,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1876,24 +1882,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1942,7 +1948,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1975,7 +1981,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2058,7 +2064,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2074,7 +2080,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,11 +2090,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2100,28 +2106,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,11 +2156,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,14 +2189,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,14 +2222,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,14 +2238,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2272,7 +2278,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2286,10 +2292,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2315,14 +2321,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2381,14 +2387,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2404,7 +2410,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2414,49 +2420,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>145</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>28</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>122</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1715.095</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>144</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>145</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1733.095</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>146</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>147</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>148</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2670,10 +2709,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -230,6 +242,15 @@
     <t>8.9100</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -347,6 +368,18 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8444:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -356,6 +389,24 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -374,9 +425,6 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -404,10 +452,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>22:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -416,7 +464,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t xml:space="preserve">سكاته حصيره </t>
@@ -428,9 +476,6 @@
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -449,7 +494,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 1:18 PM</t>
+    <t>Tuesday, 5 August, 2025 1:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1321,7 +1366,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1331,14 +1376,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1347,20 +1392,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1371,7 +1416,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1387,24 +1432,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1437,7 +1482,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1453,7 +1498,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1508,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,14 +1574,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1545,14 +1590,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1569,7 +1614,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1585,7 +1630,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1611,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1673,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1651,7 +1696,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1661,14 +1706,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1701,7 +1746,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1717,21 +1762,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1743,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1776,28 +1821,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1809,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,14 +1871,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,14 +1904,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1882,24 +1927,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,14 +1970,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1948,13 +1993,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1965,7 +2010,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1981,7 +2026,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,11 +2036,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2007,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,11 +2102,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2073,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,11 +2135,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2113,7 +2158,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,31 +2184,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,28 +2217,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2205,31 +2250,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,28 +2283,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2271,31 +2316,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2311,7 +2356,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,14 +2366,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,14 +2382,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,11 +2399,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2370,14 +2415,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,14 +2432,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2403,14 +2448,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2420,14 +2465,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2436,14 +2481,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,49 +2498,214 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>149</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>57</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>28</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>150</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>153</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>28</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>138</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1733.095</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>146</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>147</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>148</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>151</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>28</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>155</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>57</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>28</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>138</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>159</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>160</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>28</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>138</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>1957.095</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>161</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>162</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>163</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2714,10 +2924,35 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -110,7 +110,10 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>55.6800</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
@@ -308,9 +311,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>103.7400</t>
   </si>
   <si>
@@ -452,10 +452,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>27:0</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -494,7 +494,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 1:20 PM</t>
+    <t>Tuesday, 5 August, 2025 1:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1267,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1284,7 +1284,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1310,11 +1310,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1326,14 +1326,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1359,14 +1359,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1376,11 +1376,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1425,14 +1425,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1442,11 +1442,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1458,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1475,11 +1475,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1491,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1524,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,11 +1541,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1607,11 +1607,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1623,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>23</v>
@@ -1689,14 +1689,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,11 +1706,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1772,11 +1772,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1788,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1821,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,11 +1838,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1887,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1920,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,11 +1937,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1953,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1977,7 +1977,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1993,7 +1993,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2059,7 +2059,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2092,7 +2092,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2224,7 +2224,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,11 +2333,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2389,7 +2389,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2455,7 +2455,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2488,7 +2488,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2521,7 +2521,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2620,7 +2620,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>1957.095</v>
+        <v>2017.095</v>
       </c>
       <c r="Q54" s="13"/>
     </row>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
   </si>
   <si>
@@ -452,10 +461,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>33:0</t>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -494,7 +500,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 1:34 PM</t>
+    <t>Tuesday, 5 August, 2025 2:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1894,7 +1900,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,14 +1910,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,14 +1926,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1943,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1959,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +1976,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,31 +1992,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2026,24 +2032,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2052,14 +2058,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2092,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2125,7 +2131,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2141,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2241,7 +2247,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2257,7 +2263,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2323,7 +2329,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2339,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2349,28 +2355,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2422,7 +2428,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2587,7 +2593,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2597,11 +2603,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2653,7 +2659,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2663,49 +2669,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>162</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>28</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>141</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2017.095</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>161</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>162</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2051.0949999999998</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
         <v>163</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>164</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>165</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2949,10 +2988,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 2:47 PM</t>
+    <t>Tuesday, 5 August, 2025 3:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -500,7 +509,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 3:10 PM</t>
+    <t>Tuesday, 5 August, 2025 3:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2197,7 +2206,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2280,7 +2289,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2362,7 +2371,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,11 +2381,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2388,28 +2397,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2461,7 +2470,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2553,7 +2562,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>153</v>
@@ -2593,7 +2602,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,11 +2645,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2659,7 +2668,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2702,49 +2711,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>164</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>165</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>28</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>144</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2051.0949999999998</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>163</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>164</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>165</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2077.0949999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>166</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>167</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>168</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2993,10 +3035,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -254,6 +254,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -317,6 +326,15 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -398,6 +416,12 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>ZESTRIL 20MG 10 TAB</t>
   </si>
   <si>
@@ -509,7 +533,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 3:11 PM</t>
+    <t>Tuesday, 5 August, 2025 3:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,13 +1801,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1810,7 +1834,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,14 +1844,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1836,31 +1860,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,31 +1893,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1909,7 +1933,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1942,7 +1966,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,14 +1976,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,14 +2042,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,7 +2058,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2047,15 +2071,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,14 +2108,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2100,31 +2124,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2173,7 +2197,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,14 +2207,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2355,7 +2379,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2371,7 +2395,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,11 +2405,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2430,20 +2454,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2470,13 +2494,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2503,24 +2527,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,11 +2570,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2602,7 +2626,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,11 +2669,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,49 +2768,148 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2077.0949999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>166</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>167</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>164</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>28</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>168</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>58</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>28</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>152</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>173</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>28</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>152</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2340.0949999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>174</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>175</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>176</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3040,10 +3163,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -533,7 +533,7 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 3:15 PM</t>
+    <t>Tuesday, 5 August, 2025 4:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -263,6 +272,21 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -398,12 +422,6 @@
     <t>0:5</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -476,13 +494,13 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>63:0</t>
+    <t>62:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
+    <t>60.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -503,18 +521,24 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t xml:space="preserve">سكاته حصيره </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -524,16 +548,19 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
     <t>21:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 4:07 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 5 August, 2025 4:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,7 +1630,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1613,7 +1640,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1636,7 +1663,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1653,7 +1680,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1669,7 +1696,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1679,14 +1706,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1695,14 +1722,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1712,14 +1739,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1761,14 +1788,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1785,7 +1812,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1801,13 +1828,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1834,13 +1861,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1867,7 +1894,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1877,11 +1904,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1893,31 +1920,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2005,11 +2032,11 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2032,7 +2059,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2124,20 +2151,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2148,7 +2175,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2164,7 +2191,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2223,31 +2250,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2362,7 +2389,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2405,11 +2432,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2471,14 +2498,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,11 +2531,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2553,28 +2580,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2586,28 +2613,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2619,31 +2646,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,11 +2696,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2768,11 +2795,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2817,7 +2844,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2867,49 +2894,181 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2340.0949999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>174</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>175</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>28</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>176</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>58</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>28</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>158</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>180</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>28</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>158</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>181</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>182</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>28</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>24</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2440.375</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>183</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>184</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>185</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3178,10 +3337,30 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -560,7 +560,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 4:11 PM</t>
+    <t>Tuesday, 5 August, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -560,7 +569,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:14 PM</t>
+    <t>Tuesday, 5 August, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,7 +1672,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1673,7 +1682,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1696,7 +1705,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1713,7 +1722,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1845,7 +1854,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1861,13 +1870,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1900,7 +1909,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1911,7 +1920,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1927,7 +1936,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1941,7 +1950,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1970,14 +1979,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1993,7 +2002,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2003,14 +2012,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2019,31 +2028,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2052,31 +2061,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2092,7 +2101,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2125,7 +2134,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2208,7 +2217,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2250,31 +2259,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2290,24 +2299,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2356,7 +2365,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2389,7 +2398,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2455,7 +2464,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,7 +2556,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2564,7 +2573,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2587,7 +2596,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2653,7 +2662,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2679,28 +2688,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2752,7 +2761,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,7 +2853,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3026,49 +3035,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2440.375</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>183</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>184</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>185</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>28</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>24</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2456.2150000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>186</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>187</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>188</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3357,10 +3399,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -347,6 +356,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -569,7 +587,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:19 PM</t>
+    <t>Tuesday, 5 August, 2025 5:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1616,11 +1634,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1632,14 +1650,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1649,14 +1667,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1682,7 +1700,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1705,7 +1723,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,7 +1733,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1738,7 +1756,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1755,7 +1773,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1771,7 +1789,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1887,7 +1905,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1903,13 +1921,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1942,7 +1960,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1953,7 +1971,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1969,7 +1987,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1983,7 +2001,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2035,7 +2053,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2063,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,31 +2079,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,31 +2112,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2134,7 +2152,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2167,7 +2185,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,11 +2261,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,7 +2310,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2305,15 +2323,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,31 +2376,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2431,7 +2449,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2547,7 +2565,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2563,7 +2581,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,7 +2657,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2662,7 +2680,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2695,7 +2713,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,11 +2723,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2721,28 +2739,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2754,28 +2772,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2837,7 +2855,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2860,7 +2878,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2959,7 +2977,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2992,7 +3010,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3068,49 +3086,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>189</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>28</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>167</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>190</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>191</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>28</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>24</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>25</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2456.2150000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>186</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>187</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>188</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2704.2150000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>192</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>193</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>194</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3404,10 +3488,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:21 PM</t>
+    <t>Tuesday, 5 August, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -155,9 +164,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -443,6 +449,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -539,7 +551,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34:0</t>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>36:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -572,9 +587,21 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -587,7 +614,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:22 PM</t>
+    <t>Tuesday, 5 August, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1288,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1271,14 +1298,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1287,14 +1314,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1304,14 +1331,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1327,24 +1354,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1353,20 +1380,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1377,7 +1404,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1386,14 +1413,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1403,14 +1430,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1419,14 +1446,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1436,11 +1463,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1452,14 +1479,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1469,14 +1496,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1509,7 +1536,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1525,24 +1552,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1551,31 +1578,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1601,11 +1628,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1617,14 +1644,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,14 +1661,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1650,14 +1677,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1667,14 +1694,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1690,7 +1717,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1700,14 +1727,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1716,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1733,14 +1760,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,14 +1776,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1766,14 +1793,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1782,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1799,14 +1826,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1815,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1832,14 +1859,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1848,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1865,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1881,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1914,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1947,31 +1974,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1980,31 +2007,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2030,14 +2057,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2053,7 +2080,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2067,10 +2094,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2079,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2112,31 +2139,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2152,24 +2179,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,14 +2222,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2251,7 +2278,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2383,24 +2410,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,31 +2436,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2614,7 +2641,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2717,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2783,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2812,24 +2839,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,31 +2865,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,31 +2898,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,20 +2931,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2925,10 +2952,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,31 +2964,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2977,24 +3004,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,31 +3030,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,31 +3063,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,31 +3096,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3115,18 +3142,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3135,66 +3162,198 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2704.2150000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>192</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>193</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>60</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>31</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>171</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>194</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>133</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>31</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>195</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>198</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>31</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>171</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>199</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>200</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>31</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>27</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2799.9749999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>201</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>202</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>203</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3498,10 +3657,30 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANGIOSARTAN PLUS 40/12.5MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>12.4800</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>198.00</t>
   </si>
   <si>
@@ -320,6 +326,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -614,7 +629,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:31 PM</t>
+    <t>Tuesday, 5 August, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,7 +1369,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1364,11 +1379,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>25</v>
@@ -1380,31 +1395,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1413,31 +1428,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1463,14 +1478,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1479,14 +1494,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1496,14 +1511,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1512,14 +1527,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1529,14 +1544,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1545,14 +1560,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1562,14 +1577,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1578,31 +1593,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1611,20 +1626,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1635,7 +1650,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1651,7 +1666,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1727,7 +1742,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1750,7 +1765,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,14 +1791,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,11 +1808,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1826,11 +1841,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +1989,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,14 +2006,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,28 +2022,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2040,31 +2055,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,11 +2105,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2113,7 +2128,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2127,10 +2142,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,31 +2187,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2245,24 +2260,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2311,7 +2326,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2328,7 +2343,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2344,7 +2359,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,11 +2402,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2443,13 +2458,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2476,7 +2491,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,31 +2517,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,14 +2550,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,11 +2567,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,11 +2666,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2674,7 +2689,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2721,10 +2736,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2748,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,14 +2765,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2790,7 +2805,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2806,7 +2821,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,11 +2831,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,11 +2864,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2882,11 +2897,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2898,20 +2913,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2938,21 +2953,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2964,31 +2979,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,28 +3012,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3030,31 +3045,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3070,24 +3085,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>185</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,31 +3111,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,31 +3144,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,28 +3177,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3202,24 +3217,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,28 +3243,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3261,31 +3276,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3301,59 +3316,125 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2799.9749999999999</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>201</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>202</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>203</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>35</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>176</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>204</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>205</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>35</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>31</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>2912.625</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>206</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>207</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>208</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3677,10 +3758,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -629,7 +629,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:38 PM</t>
+    <t>Tuesday, 5 August, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -197,6 +206,18 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -224,12 +245,21 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -272,6 +302,12 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
     <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
   </si>
   <si>
@@ -347,6 +383,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -398,6 +443,12 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>SHOMA CREAM 60 GM</t>
   </si>
   <si>
@@ -410,7 +461,7 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>103.7400</t>
+    <t>129.4800</t>
   </si>
   <si>
     <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
@@ -425,15 +476,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -455,6 +497,15 @@
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -476,6 +527,15 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -560,9 +620,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -605,6 +662,15 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -629,7 +695,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:39 PM</t>
+    <t>Tuesday, 5 August, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,7 +1534,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1478,14 +1544,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1494,14 +1560,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1511,14 +1577,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1527,14 +1593,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1544,14 +1610,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1560,14 +1626,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1577,14 +1643,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1593,14 +1659,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1610,14 +1676,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1626,31 +1692,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1659,20 +1725,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1683,7 +1749,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1699,7 +1765,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1716,7 +1782,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1732,7 +1798,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1742,14 +1808,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1758,7 +1824,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1775,14 +1841,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1791,14 +1857,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1808,14 +1874,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1824,14 +1890,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1841,14 +1907,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1857,14 +1923,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1874,7 +1940,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1897,7 +1963,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1907,14 +1973,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1923,14 +1989,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,14 +2006,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1963,7 +2029,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1973,14 +2039,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1989,14 +2055,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2006,14 +2072,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2022,14 +2088,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,14 +2105,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,31 +2121,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2095,7 +2161,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2109,10 +2175,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2121,14 +2187,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2142,7 +2208,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2154,14 +2220,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2171,11 +2237,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2187,31 +2253,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2220,14 +2286,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2260,24 +2326,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2293,7 +2359,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2310,7 +2376,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2326,7 +2392,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2359,7 +2425,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,14 +2435,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2385,14 +2451,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2402,14 +2468,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2418,31 +2484,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2458,7 +2524,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2475,7 +2541,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2491,7 +2557,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2501,14 +2567,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,7 +2583,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2530,11 +2596,11 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2557,7 +2623,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2633,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2649,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2607,7 +2673,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2623,7 +2689,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2637,7 +2703,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2649,14 +2715,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,11 +2732,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2682,14 +2748,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,14 +2765,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2728,7 +2794,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2736,7 +2802,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2748,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,11 +2831,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2788,7 +2854,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2864,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,14 +2880,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,14 +2897,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2854,7 +2920,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,11 +2930,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2880,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,14 +2963,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2913,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,11 +2996,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2946,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,11 +3029,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2979,31 +3045,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,28 +3078,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3045,31 +3111,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,28 +3144,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3111,7 +3177,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3124,18 +3190,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3144,31 +3210,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>190</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,28 +3243,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3210,28 +3276,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3243,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3260,11 +3326,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3276,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3293,14 +3359,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3309,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3333,7 +3399,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3349,7 +3415,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3359,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3375,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3392,49 +3458,346 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>27</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>35</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>207</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>211</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>35</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>196</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>213</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>35</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>214</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>216</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>27</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>35</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>196</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>27</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>35</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>218</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>220</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>27</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>35</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>196</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>221</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>38</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>35</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>222</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>224</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>225</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>35</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>196</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>227</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>35</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>31</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>32</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>2912.625</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>206</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>207</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>208</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3328.7649999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>228</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>229</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>230</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3768,10 +4131,55 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
@@ -389,93 +398,108 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>129.4800</t>
+  </si>
+  <si>
+    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>SHOMA CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>129.4800</t>
-  </si>
-  <si>
-    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -566,12 +590,6 @@
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
   </si>
   <si>
@@ -617,6 +635,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -632,9 +659,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -695,7 +719,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 5:55 PM</t>
+    <t>Tuesday, 5 August, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2128,24 +2152,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2154,7 +2178,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2171,14 +2195,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2208,10 +2232,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2244,7 +2268,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2260,13 +2284,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2299,7 +2323,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2310,7 +2334,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2326,7 +2350,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2340,7 +2364,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2392,7 +2416,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2409,7 +2433,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2425,7 +2449,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,11 +2459,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2497,18 +2521,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2517,31 +2541,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2557,7 +2581,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2590,7 +2614,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2624,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,7 +2657,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2656,7 +2680,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,7 +2706,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2699,14 +2723,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2722,7 +2746,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,14 +2756,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,14 +2789,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,7 +2805,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2794,15 +2818,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2855,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2847,31 +2871,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,14 +2904,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,11 +2921,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2913,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,11 +2987,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2979,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,11 +3020,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,7 +3102,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3095,11 +3119,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,7 +3168,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3161,11 +3185,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3177,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,11 +3251,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3243,14 +3267,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,11 +3284,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3276,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3293,11 +3317,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3309,28 +3333,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3342,28 +3366,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3375,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3392,14 +3416,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3425,14 +3449,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,14 +3482,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,7 +3498,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3491,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,14 +3548,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3547,7 +3571,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,14 +3581,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,7 +3597,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3590,14 +3614,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,14 +3630,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3623,11 +3647,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3646,7 +3670,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,14 +3680,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3689,11 +3713,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3722,11 +3746,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3738,14 +3762,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3755,49 +3779,148 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>229</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>38</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>35</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>230</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>232</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>233</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>35</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>202</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>234</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>235</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>35</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>31</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>32</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3328.7649999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>228</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>229</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>230</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3453.2449999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>236</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>237</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>238</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4176,10 +4299,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -362,6 +362,12 @@
     <t>60.00</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -644,6 +650,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">حجر </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -671,12 +689,15 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -689,21 +710,12 @@
     <t>قياس سكر</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -719,7 +731,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:13 PM</t>
+    <t>Tuesday, 5 August, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2416,13 +2428,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2430,10 +2442,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,11 +2504,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,7 +2553,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2554,18 +2566,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2581,24 +2593,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,11 +2636,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2680,7 +2692,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2789,11 +2801,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2878,24 +2890,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2904,31 +2916,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2944,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,11 +2999,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3142,7 +3154,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3175,7 +3187,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3284,11 +3296,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,11 +3329,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3333,7 +3345,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3383,11 +3395,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3399,28 +3411,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,11 +3461,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>214</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,14 +3626,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3637,7 +3649,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,14 +3659,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3680,14 +3692,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3703,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,11 +3725,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3729,14 +3741,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3769,7 +3781,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,11 +3824,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3835,7 +3847,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3845,11 +3857,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3861,14 +3873,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3878,49 +3890,148 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>234</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>38</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>35</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>227</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>236</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>237</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>35</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>204</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>238</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>239</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>35</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>31</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>32</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3453.2449999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>236</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>237</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>238</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3535.2449999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>240</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>241</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>242</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4314,10 +4425,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:14 PM</t>
+    <t>Tuesday, 5 August, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>12.00</t>
@@ -386,6 +386,15 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -548,9 +557,6 @@
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -611,9 +617,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -731,7 +734,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:22 PM</t>
+    <t>Tuesday, 5 August, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2527,7 +2530,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2537,14 +2540,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2553,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2577,7 +2580,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2599,18 +2602,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,31 +2622,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2659,7 +2662,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2692,7 +2695,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2718,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2758,7 +2761,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2775,7 +2778,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2791,7 +2794,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2857,7 +2860,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2874,7 +2877,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2890,7 +2893,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,31 +2919,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2956,24 +2959,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,7 +3002,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3022,7 +3025,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3055,7 +3058,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3081,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3121,7 +3124,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3138,7 +3141,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3154,7 +3157,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3180,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,14 +3200,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3220,7 +3223,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3299,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3329,11 +3332,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,11 +3365,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3378,7 +3381,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3444,28 +3447,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,11 +3497,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,14 +3629,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3649,7 +3652,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>220</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,7 +3678,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,14 +3711,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,14 +3777,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,14 +3794,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,14 +3810,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3827,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3857,11 +3860,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>98</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3913,7 +3916,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3989,49 +3992,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>239</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>240</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>35</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>31</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>32</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3535.2449999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>240</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c t="s" r="Q87" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3581.2449999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
         <v>241</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
         <v>242</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>243</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4440,10 +4476,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -329,6 +329,24 @@
     <t>8.9100</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -341,12 +359,6 @@
     <t>IVYWONDER ACNE PRONE SKIN GEL</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
   </si>
   <si>
@@ -392,9 +404,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -410,9 +419,6 @@
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -440,6 +446,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
   </si>
   <si>
@@ -536,6 +551,18 @@
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -656,9 +683,6 @@
     <t xml:space="preserve">حجر </t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -734,7 +758,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:24 PM</t>
+    <t>Tuesday, 5 August, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2299,7 +2323,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2338,7 +2362,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2365,7 +2389,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2382,7 +2406,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2398,24 +2422,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2424,28 +2448,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2464,7 +2488,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2478,10 +2502,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2490,28 +2514,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2523,14 +2547,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,14 +2564,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2556,14 +2580,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,11 +2597,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2589,7 +2613,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,31 +2646,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2655,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,31 +2712,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2721,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2738,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2754,14 +2778,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,11 +2795,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,11 +2828,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2820,14 +2844,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2853,14 +2877,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,11 +2927,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2919,14 +2943,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,14 +2960,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2952,31 +2976,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,14 +3009,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,14 +3026,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3018,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,31 +3075,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3125,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,11 +3158,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3150,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3167,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3183,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,11 +3224,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3216,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3256,7 +3280,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3273,7 +3297,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3289,7 +3313,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,11 +3356,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,11 +3422,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3414,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3438,7 +3462,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3454,7 +3478,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,11 +3488,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3480,28 +3504,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3513,28 +3537,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3546,31 +3570,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,28 +3603,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3612,14 +3636,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3629,11 +3653,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3645,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3662,14 +3686,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3695,14 +3719,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,7 +3735,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3728,14 +3752,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,14 +3768,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3761,11 +3785,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3777,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3794,14 +3818,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,14 +3834,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3827,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,7 +3867,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3860,14 +3884,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3883,7 +3907,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3893,11 +3917,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3909,14 +3933,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3926,14 +3950,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3942,14 +3966,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3959,11 +3983,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -3975,14 +3999,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3992,11 +4016,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4008,14 +4032,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4025,49 +4049,181 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>242</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>27</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>35</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>214</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>243</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>38</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>35</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>236</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>245</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>246</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>35</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>214</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>247</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>248</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>35</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>31</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>32</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3581.2449999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>241</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>242</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>243</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>3762.7449999999999</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>249</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>250</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>251</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4481,10 +4637,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -236,6 +248,21 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -245,9 +272,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -455,6 +479,18 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
   </si>
   <si>
@@ -545,9 +581,6 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -587,9 +620,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -704,18 +734,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t xml:space="preserve">سكاته حصيره </t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>سويت كوكو</t>
   </si>
   <si>
@@ -743,9 +770,6 @@
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -755,10 +779,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 5 August, 2025 6:29 PM</t>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 5 August, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1654,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1663,7 +1687,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1673,14 +1697,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1713,7 +1737,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1746,7 +1770,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1762,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1772,14 +1796,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1788,31 +1812,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1828,24 +1852,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1878,7 +1902,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1894,7 +1918,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1904,11 +1928,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1920,7 +1944,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1937,14 +1961,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1953,7 +1977,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1970,11 +1994,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1986,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2036,11 +2060,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2092,7 +2116,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2102,14 +2126,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,14 +2159,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2192,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,31 +2208,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2217,7 +2241,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2257,7 +2281,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,31 +2307,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2316,7 +2340,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2333,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,11 +2390,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,14 +2423,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,28 +2439,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2481,7 +2505,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,7 +2571,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2564,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,11 +2621,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2620,13 +2644,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2634,10 +2658,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2725,18 +2749,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2752,7 +2776,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,11 +2786,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2778,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2824,15 +2848,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2844,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2885,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2884,7 +2908,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2917,7 +2941,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2967,7 +2991,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2983,7 +3007,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3082,24 +3106,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,28 +3231,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,11 +3314,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3346,7 +3370,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,11 +3380,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3389,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3446,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,11 +3512,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3511,7 +3535,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,11 +3578,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3577,7 +3601,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,11 +3644,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3636,28 +3660,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3669,28 +3693,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3709,24 +3733,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,28 +3759,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3785,11 +3809,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>229</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>232</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,7 +3931,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3917,11 +3941,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3950,14 +3974,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3973,7 +3997,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3983,14 +4007,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>239</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4115,11 +4139,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4131,14 +4155,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4148,11 +4172,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4181,49 +4205,181 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>3762.7449999999999</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>249</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>250</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>251</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>27</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>35</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>224</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>252</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>38</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>35</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>245</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>253</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>254</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>35</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>224</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>255</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>256</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>35</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>31</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>3946.6500000000001</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>257</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>258</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>259</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4657,10 +4813,30 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -311,6 +311,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
   </si>
   <si>
@@ -500,9 +509,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>6.7200</t>
   </si>
   <si>
@@ -548,7 +554,7 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>129.4800</t>
+    <t>207.4800</t>
   </si>
   <si>
     <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
@@ -782,7 +788,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:32 PM</t>
+    <t>Tuesday, 5 August, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,20 +2313,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2331,7 +2337,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,24 +2353,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,7 +2379,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2390,14 +2396,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2427,10 +2433,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,14 +2445,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2463,7 +2469,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2479,7 +2485,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2512,7 +2518,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2545,21 +2551,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2571,31 +2577,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2611,7 +2617,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2625,7 +2631,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2637,24 +2643,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2670,31 +2676,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2710,7 +2716,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2727,7 +2733,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2743,7 +2749,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2757,10 +2763,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2775,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2790,10 +2796,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,14 +2808,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,7 +2841,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2848,18 +2854,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,31 +2874,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2908,7 +2914,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2941,7 +2947,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2958,7 +2964,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2974,7 +2980,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,11 +2990,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,11 +3023,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3073,7 +3079,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3105,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3122,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,11 +3155,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3221,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3244,18 +3250,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,31 +3270,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,7 +3310,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,11 +3320,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,11 +3353,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3370,7 +3376,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3419,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,11 +3518,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3528,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,14 +3650,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3677,11 +3683,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,11 +3716,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3726,7 +3732,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3743,11 +3749,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,11 +3782,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3792,28 +3798,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,11 +3848,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3858,14 +3864,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,14 +3881,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,14 +3930,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,11 +3947,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3957,14 +3963,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3974,14 +3980,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,14 +3996,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4013,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>239</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,7 +4029,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4040,14 +4046,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>241</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>242</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4062,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,14 +4095,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4129,7 +4135,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4143,10 +4149,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4188,7 +4194,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4205,11 +4211,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4221,7 +4227,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4287,14 +4293,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4304,11 +4310,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4337,49 +4343,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q95" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>257</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>258</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>35</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>31</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>3946.6500000000001</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>257</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>258</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4066.6500000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>259</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>260</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>261</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4833,10 +4872,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -788,7 +788,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:38 PM</t>
+    <t>Tuesday, 5 August, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -434,9 +446,6 @@
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -491,9 +500,6 @@
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>62.00</t>
   </si>
   <si>
@@ -569,9 +575,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -788,7 +791,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:40 PM</t>
+    <t>Tuesday, 5 August, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1825,7 +1828,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1835,14 +1838,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1851,31 +1854,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1891,24 +1894,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1917,14 +1920,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1941,7 +1944,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1957,7 +1960,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1967,11 +1970,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1983,7 +1986,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2000,14 +2003,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2016,14 +2019,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2033,14 +2036,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2049,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,11 +2069,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2082,14 +2085,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2099,14 +2102,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2115,14 +2118,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2132,14 +2135,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2148,14 +2151,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2165,14 +2168,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2198,11 +2201,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2214,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,11 +2234,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2247,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2280,7 +2283,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2337,7 +2340,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2353,24 +2356,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2379,31 +2382,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2429,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,14 +2465,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2485,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2511,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2528,11 +2531,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2544,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,11 +2564,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2577,28 +2580,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2610,31 +2613,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2676,28 +2679,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2709,31 +2712,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,14 +2795,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2874,7 +2877,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2887,18 +2890,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,31 +2910,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2947,7 +2950,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2980,7 +2983,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2997,7 +3000,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3013,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3023,11 +3026,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,7 +3059,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3079,7 +3082,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3112,7 +3115,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,14 +3125,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3138,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3171,14 +3174,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3188,11 +3191,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3204,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,14 +3224,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,7 +3240,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3254,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3283,18 +3286,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,31 +3306,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3343,7 +3346,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3442,7 +3445,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3501,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3574,7 +3577,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3587,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3607,7 +3610,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,7 +3702,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3716,11 +3719,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3782,11 +3785,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,11 +3818,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3838,21 +3841,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3881,11 +3884,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,14 +3966,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3980,11 +3983,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4036,7 +4039,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>241</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4062,7 +4065,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4079,14 +4082,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4112,14 +4115,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4135,7 +4138,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4178,14 +4181,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4194,14 +4197,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4244,11 +4247,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>160</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4300,7 +4303,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4333,7 +4336,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4343,11 +4346,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4376,49 +4379,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q96" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>258</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>259</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>35</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>31</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4066.6500000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>259</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4089.6500000000001</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
         <v>260</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
         <v>261</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>262</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4877,10 +4913,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -791,7 +791,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:48 PM</t>
+    <t>Tuesday, 5 August, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -689,6 +689,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بلسم صانسيلك كبير 350ملل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -731,6 +740,9 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -791,7 +803,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:53 PM</t>
+    <t>Tuesday, 5 August, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3907,7 +3919,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3940,7 +3952,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,14 +3962,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3966,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3990,7 +4002,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4006,7 +4018,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4039,7 +4051,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,14 +4061,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,14 +4077,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,14 +4094,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>242</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4115,14 +4127,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,14 +4143,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,14 +4160,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4171,7 +4183,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,14 +4193,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,14 +4209,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4214,11 +4226,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4230,14 +4242,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4270,7 +4282,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4280,11 +4292,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4296,7 +4308,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4329,14 +4341,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4346,11 +4358,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4362,14 +4374,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4412,49 +4424,115 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>260</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>261</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>35</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>230</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>262</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>263</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>35</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>31</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>214</v>
       </c>
-      <c t="s" r="Q97" s="12">
+      <c t="s" r="Q99" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4089.6500000000001</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>260</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>261</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>262</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4249.6499999999996</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>264</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>265</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>266</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4918,10 +4996,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>BIOREFAMIN 550 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>296.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -299,249 +308,267 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>8.9100</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -755,40 +782,43 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
     <t>30.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سكاته حصيره </t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>قطن ازن صغير</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
@@ -1774,7 +1804,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1784,11 +1814,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1800,14 +1830,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1817,14 +1847,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1833,14 +1863,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1850,11 +1880,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1866,14 +1896,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1883,14 +1913,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1899,31 +1929,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1932,20 +1962,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1956,7 +1986,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1972,7 +2002,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1982,14 +2012,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1998,14 +2028,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2055,7 +2085,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2071,7 +2101,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2088,7 +2118,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2104,7 +2134,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2114,11 +2144,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2130,14 +2160,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2147,14 +2177,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2163,14 +2193,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2180,14 +2210,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2196,14 +2226,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2213,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2229,14 +2259,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2246,7 +2276,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2269,7 +2299,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2279,14 +2309,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2295,14 +2325,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2312,14 +2342,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2328,14 +2358,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2345,14 +2375,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2361,14 +2391,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2378,14 +2408,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2394,28 +2424,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2427,7 +2457,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2444,14 +2474,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2460,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2481,10 +2511,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2493,20 +2523,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2517,7 +2547,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2543,14 +2573,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2559,14 +2589,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2576,11 +2606,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2592,14 +2622,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2609,14 +2639,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2625,28 +2655,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2665,7 +2695,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2682,7 +2712,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2712,10 +2742,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2724,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,14 +2771,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2781,7 +2811,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2797,7 +2827,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,11 +2837,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2823,31 +2853,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2856,14 +2886,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,14 +2903,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2889,14 +2919,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,14 +2936,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2922,28 +2952,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2955,14 +2985,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,14 +3002,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2988,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,11 +3035,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3021,7 +3051,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3038,14 +3068,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3054,28 +3084,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3087,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,14 +3134,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3120,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,11 +3167,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3153,14 +3183,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,11 +3200,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3186,14 +3216,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3203,14 +3233,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3219,14 +3249,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3252,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3269,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3285,14 +3315,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,31 +3348,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3351,14 +3381,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3368,14 +3398,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3391,7 +3421,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3408,7 +3438,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3424,7 +3454,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3434,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3457,21 +3487,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3483,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3516,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,11 +3563,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3549,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3582,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,11 +3629,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3615,14 +3645,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,14 +3662,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3648,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,14 +3695,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3681,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3705,7 +3735,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3721,7 +3751,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,11 +3761,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3747,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3764,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3780,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3797,11 +3827,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3813,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3837,7 +3867,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3853,7 +3883,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3863,11 +3893,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3879,28 +3909,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3912,7 +3942,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3925,15 +3955,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3945,28 +3975,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3978,31 +4008,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,14 +4041,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4028,11 +4058,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4044,14 +4074,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,11 +4091,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4077,14 +4107,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,14 +4124,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4110,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,7 +4173,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4160,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>246</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,14 +4206,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>249</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,14 +4239,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,14 +4256,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4242,14 +4272,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,14 +4289,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4282,7 +4312,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,14 +4322,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4325,14 +4355,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4341,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4358,11 +4388,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4374,14 +4404,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4391,14 +4421,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4407,14 +4437,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4424,11 +4454,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4440,14 +4470,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4457,11 +4487,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4473,14 +4503,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4490,49 +4520,181 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q99" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>267</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>27</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>35</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>239</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>268</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>38</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>35</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>261</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>270</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>271</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>35</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>239</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>272</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>273</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>35</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>31</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4249.6499999999996</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>264</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>265</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>266</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>4701.4899999999998</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>274</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>275</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>276</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5006,10 +5168,30 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -191,543 +191,561 @@
     <t>CEFZIM 1 GM VIAL</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>207.4800</t>
+  </si>
+  <si>
+    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8444:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>بلسم صانسيلك كبير 350ملل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>8.9100</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>SHOMA CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>207.4800</t>
-  </si>
-  <si>
-    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>TRILLERG EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>VONASPIRE 20MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8444:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>بلسم صانسيلك كبير 350ملل</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -833,7 +851,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 6:55 PM</t>
+    <t>Tuesday, 5 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1887,7 +1905,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1903,7 +1921,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1929,31 +1947,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1969,24 +1987,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2019,7 +2037,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2035,7 +2053,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2045,11 +2063,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2061,7 +2079,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2078,14 +2096,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2144,11 +2162,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2266,7 +2284,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,7 +2409,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2424,7 +2442,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2441,11 +2459,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2481,7 +2499,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2497,24 +2515,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2523,31 +2541,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2556,7 +2574,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2629,7 +2647,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2672,11 +2690,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2705,11 +2723,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2721,7 +2739,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2738,11 +2756,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2754,7 +2772,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2771,11 +2789,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2787,7 +2805,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2804,11 +2822,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2820,7 +2838,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2853,7 +2871,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2870,11 +2888,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2886,7 +2904,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2919,7 +2937,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2936,11 +2954,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2952,7 +2970,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2969,11 +2987,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2985,7 +3003,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3025,7 +3043,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3084,7 +3102,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3097,18 +3115,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3117,31 +3135,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3157,7 +3175,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3190,7 +3208,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3207,7 +3225,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3223,7 +3241,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3256,7 +3274,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,11 +3284,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3372,7 +3390,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3421,7 +3439,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3447,7 +3465,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3480,7 +3498,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3493,18 +3511,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3513,31 +3531,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3563,11 +3581,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,11 +3614,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,7 +3927,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3926,11 +3944,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3975,7 +3993,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,11 +4043,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4041,28 +4059,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,11 +4109,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,11 +4142,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,11 +4241,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,7 +4323,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>255</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,7 +4356,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4421,14 +4439,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4487,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4503,7 +4521,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4520,11 +4538,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4536,7 +4554,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4619,11 +4637,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4652,49 +4670,82 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>278</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>279</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>35</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>31</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>4701.4899999999998</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>274</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>275</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>276</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4942.4899999999998</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>280</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>281</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>282</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5188,10 +5239,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -65,6 +65,9 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -134,648 +137,690 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>55.6800</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>BILICHOL 24 CAPS</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>BIOREFAMIN 550 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>296.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DIFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>207.4800</t>
+  </si>
+  <si>
+    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
     <t>0:5</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>55.6800</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>BIOREFAMIN 550 MG 10 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>296.00</t>
-  </si>
-  <si>
-    <t>148.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFZIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>8.9100</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>HEALSEC 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>SHOMA CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>207.4800</t>
-  </si>
-  <si>
-    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>TRILLERG EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8444:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>بلسم صانسيلك كبير 350ملل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>62:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجر </t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>VONASPIRE 20MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8444:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>بلسم صانسيلك كبير 350ملل</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>62:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حجر </t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -851,7 +896,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 7:17 PM</t>
+    <t>Tuesday, 5 August, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1570,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1535,14 +1580,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1551,14 +1596,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1568,14 +1613,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1584,14 +1629,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1601,14 +1646,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1617,7 +1662,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1634,14 +1679,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1650,31 +1695,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1683,14 +1728,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1700,14 +1745,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1716,14 +1761,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1733,14 +1778,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1749,14 +1794,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1766,14 +1811,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1782,14 +1827,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1799,11 +1844,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1815,14 +1860,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1832,14 +1877,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1848,14 +1893,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1872,7 +1917,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1905,7 +1950,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1921,7 +1966,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1931,14 +1976,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1947,31 +1992,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1987,24 +2032,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2013,14 +2058,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,14 +2075,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2046,14 +2091,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2063,14 +2108,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2079,14 +2124,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2096,14 +2141,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2112,14 +2157,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2129,14 +2174,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2145,14 +2190,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,14 +2207,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2178,14 +2223,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,14 +2240,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2211,14 +2256,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2228,14 +2273,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2289,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,14 +2306,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2277,14 +2322,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,14 +2339,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2310,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2327,14 +2372,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2343,14 +2388,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2360,14 +2405,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2376,14 +2421,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2393,14 +2438,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,14 +2454,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,14 +2471,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2442,14 +2487,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2459,14 +2504,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2475,14 +2520,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2537,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,31 +2553,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2541,14 +2586,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,14 +2603,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2574,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,14 +2636,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2607,31 +2652,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2640,14 +2685,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2702,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,14 +2735,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2706,14 +2751,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2723,14 +2768,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,14 +2784,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2801,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,31 +2817,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2805,14 +2850,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,14 +2867,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2838,7 +2883,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2855,14 +2900,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,31 +2916,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2949,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,14 +2966,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2982,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +2999,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,14 +3015,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,31 +3048,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3036,14 +3081,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3069,14 +3114,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3131,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3102,14 +3147,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,31 +3180,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3168,14 +3213,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3230,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,14 +3279,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,14 +3296,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3267,31 +3312,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3300,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,14 +3362,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3378,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,14 +3395,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3366,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3428,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,14 +3461,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3432,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,14 +3494,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,14 +3510,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3505,7 +3550,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3560,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3538,13 +3583,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3555,7 +3600,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3571,7 +3616,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3626,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3659,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3696,31 +3741,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3857,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,14 +3890,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3923,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,14 +3939,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,14 +3956,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,14 +3989,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,14 +4022,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4000,7 +4045,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,31 +4137,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,31 +4170,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,31 +4203,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4198,24 +4243,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,31 +4269,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,31 +4302,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,31 +4335,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4330,24 +4375,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,31 +4401,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>261</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4389,31 +4434,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>263</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,31 +4467,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,31 +4500,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4488,31 +4533,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,31 +4566,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4554,31 +4599,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4587,31 +4632,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>174</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4620,31 +4665,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4653,31 +4698,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4686,66 +4731,231 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q104" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>287</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>28</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>36</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>270</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>288</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>28</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>36</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>259</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>289</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>39</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>36</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>282</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>291</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>292</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>36</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>259</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>293</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>294</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>36</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>32</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4942.4899999999998</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>280</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>281</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>282</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5386.4899999999998</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>295</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>296</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>297</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5244,10 +5454,35 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -569,13 +569,13 @@
     <t>19.5000</t>
   </si>
   <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>67.8300</t>
   </si>
   <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
@@ -896,7 +896,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 7:39 PM</t>
+    <t>Tuesday, 5 August, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3451,7 +3451,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3468,7 +3468,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -4925,7 +4925,7 @@
     </row>
     <row r="110" ht="24.75" customHeight="1">
       <c r="P110" s="13">
-        <v>5386.4899999999998</v>
+        <v>5362.3199999999997</v>
       </c>
       <c r="Q110" s="13"/>
     </row>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -896,7 +896,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 7:40 PM</t>
+    <t>Tuesday, 5 August, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -569,6 +569,9 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -680,6 +683,9 @@
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -695,6 +701,15 @@
     <t>57.7500</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -836,10 +851,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>36:0</t>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>40:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -857,9 +872,6 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
@@ -881,9 +893,6 @@
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -896,7 +905,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 7:42 PM</t>
+    <t>Tuesday, 5 August, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3451,7 +3460,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,11 +3668,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3741,31 +3750,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3774,31 +3783,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,11 +3833,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3913,7 +3922,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3972,7 +3981,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4170,7 +4179,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4302,28 +4311,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>26</v>
@@ -4335,7 +4344,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4348,15 +4357,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4368,28 +4377,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>26</v>
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>26</v>
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>39</v>
@@ -4533,7 +4542,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>276</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4606,7 +4615,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,14 +4625,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>278</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>26</v>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>190</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4847,11 +4856,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -4870,7 +4879,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4880,11 +4889,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>26</v>
@@ -4896,14 +4905,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4913,49 +4922,148 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q109" s="12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>293</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>39</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>36</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>231</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>294</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>295</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>36</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>264</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>296</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>297</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>36</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>32</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5362.3199999999997</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>295</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>296</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>297</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5502.3199999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>298</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>299</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>300</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5479,10 +5587,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALGASON MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>47.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANGIOSARTAN PLUS 40/12.5MG 28 F.C. TABS.</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>DIBAVALLY PLUS 50/1000MG 28 TABS.</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
     <t>DIFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -398,6 +416,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FORTYMOX 0.5% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
@@ -431,12 +458,6 @@
     <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>HEALSEC 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -527,81 +548,93 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>67.8300</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>67.8300</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
     <t>6.7200</t>
   </si>
   <si>
@@ -644,6 +677,12 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -662,9 +701,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -680,6 +716,12 @@
     <t>124.00</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -791,6 +833,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بلسم صانسيلك كبير 350ملل</t>
   </si>
   <si>
@@ -803,12 +857,6 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -851,22 +899,25 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>40:0</t>
+    <t>48:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t xml:space="preserve">سكاته حصيره </t>
-  </si>
-  <si>
-    <t>10:0</t>
   </si>
   <si>
     <t>سويت كوكو</t>
@@ -1596,7 +1647,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1605,14 +1656,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1622,14 +1673,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1638,14 +1689,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1655,14 +1706,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1671,14 +1722,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1695,7 +1746,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1711,24 +1762,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1737,31 +1788,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1787,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1803,14 +1854,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1827,7 +1878,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1836,14 +1887,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1853,14 +1904,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1869,14 +1920,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1893,7 +1944,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1909,7 +1960,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1926,7 +1977,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1942,7 +1993,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1952,14 +2003,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1968,14 +2019,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1985,14 +2036,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2001,14 +2052,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2018,14 +2069,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2034,31 +2085,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2067,31 +2118,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2100,14 +2151,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2124,7 +2175,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2140,7 +2191,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2157,7 +2208,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2173,7 +2224,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2190,7 +2241,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2206,7 +2257,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2216,14 +2267,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2232,14 +2283,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2249,14 +2300,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2265,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2282,14 +2333,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2298,14 +2349,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2315,14 +2366,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2331,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2348,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2364,14 +2415,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2388,7 +2439,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2404,7 +2455,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2430,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,14 +2498,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2503,7 +2554,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2520,7 +2571,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2536,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2553,7 +2604,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2569,7 +2620,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2586,7 +2637,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2602,7 +2653,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2619,7 +2670,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2635,7 +2686,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2661,31 +2712,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2694,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2727,31 +2778,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2793,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2833,7 +2884,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2847,10 +2898,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2859,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2883,7 +2934,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2899,7 +2950,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2916,7 +2967,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2932,24 +2983,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2965,7 +3016,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2982,7 +3033,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3008,14 +3059,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,31 +3075,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3064,13 +3115,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3078,10 +3129,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3090,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,14 +3158,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3123,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,14 +3191,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3156,31 +3207,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3229,7 +3280,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3246,7 +3297,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3262,7 +3313,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3288,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3321,31 +3372,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3361,7 +3412,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3387,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,31 +3471,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3493,7 +3544,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3507,10 +3558,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3519,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3585,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3602,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,31 +3669,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3651,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3717,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,31 +3834,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,14 +3867,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,14 +3884,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3849,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3915,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3955,7 +4006,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,31 +4032,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4054,7 +4105,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4071,7 +4122,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4087,7 +4138,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4101,10 +4152,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4153,7 +4204,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4179,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,31 +4461,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,31 +4494,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,31 +4527,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,31 +4560,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,31 +4593,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,31 +4626,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,31 +4659,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4641,31 +4692,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,31 +4725,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>281</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>283</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,31 +4791,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,31 +4824,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,31 +4857,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4839,31 +4890,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4872,31 +4923,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4905,31 +4956,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>191</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4938,31 +4989,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4971,31 +5022,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5004,66 +5055,363 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>302</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>301</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>39</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>276</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>303</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>18</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>39</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>245</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5502.3199999999997</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>298</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>299</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>300</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>304</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>290</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>39</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>305</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>307</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>31</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>39</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>276</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>308</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>31</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>39</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>291</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>309</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>31</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>39</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>276</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>310</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>42</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>39</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>245</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>311</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>312</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>39</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>276</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>313</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>314</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>39</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>35</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6131.3199999999997</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>315</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>316</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>317</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5602,10 +5950,55 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -614,7 +614,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>67.8300</t>
+    <t>51.0000</t>
   </si>
   <si>
     <t>PANTAZOL 40MG VIAL I.V.</t>
@@ -956,7 +956,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 7:43 PM</t>
+    <t>Tuesday, 5 August, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3726,7 +3726,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -5381,7 +5381,7 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>6131.3199999999997</v>
+        <v>6114.4899999999998</v>
       </c>
       <c r="Q122" s="13"/>
     </row>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500MG VIAL 100 ML</t>
   </si>
   <si>
@@ -317,6 +326,18 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
     <t>DIBAVALLY PLUS 50/1000MG 28 TABS.</t>
   </si>
   <si>
@@ -729,9 +750,6 @@
   </si>
   <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
   </si>
   <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
@@ -1696,7 +1714,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1706,11 +1724,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1739,11 +1757,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1795,24 +1813,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1821,24 +1839,24 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1871,11 +1889,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1911,7 +1929,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1920,14 +1938,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1977,7 +1995,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1993,7 +2011,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2010,7 +2028,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2026,7 +2044,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,11 +2054,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2118,31 +2136,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2151,31 +2169,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2208,7 +2226,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2224,7 +2242,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2257,7 +2275,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2274,7 +2292,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2290,7 +2308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,11 +2351,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2472,7 +2490,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,11 +2648,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2646,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,7 +2697,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2729,11 +2747,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2769,7 +2787,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2785,13 +2803,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2818,7 +2836,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2844,31 +2862,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2877,7 +2895,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2894,11 +2912,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2943,7 +2961,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2960,11 +2978,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2983,7 +3001,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,11 +3044,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,11 +3077,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3075,28 +3093,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3141,31 +3159,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3207,28 +3225,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3240,14 +3258,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,11 +3275,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3273,28 +3291,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3341,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,11 +3407,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,31 +3489,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,31 +3555,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,28 +3687,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3735,28 +3753,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3803,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,11 +3869,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3907,7 +3925,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3924,7 +3942,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3940,7 +3958,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,31 +4050,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,31 +4116,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4166,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4298,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4369,7 +4387,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4386,7 +4404,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4402,7 +4420,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,11 +4430,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,11 +4496,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4494,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,7 +4562,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4567,7 +4585,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,14 +4595,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4626,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,11 +4661,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4659,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,11 +4694,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4692,28 +4710,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4725,28 +4743,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4758,28 +4776,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4791,28 +4809,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4824,31 +4842,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,28 +4875,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4890,31 +4908,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4956,28 +4974,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4989,31 +5007,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,31 +5040,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>275</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,31 +5073,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,31 +5106,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,31 +5139,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5154,28 +5172,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5187,31 +5205,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5220,28 +5238,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5253,31 +5271,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5286,28 +5304,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5319,31 +5337,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5352,66 +5370,132 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>317</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>318</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>42</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>282</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>319</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>320</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>42</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>38</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q123" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6114.4899999999998</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>315</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>316</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>317</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6147.5900000000001</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>321</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>322</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>323</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5995,10 +6079,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 7:46 PM</t>
+    <t>Tuesday, 5 August, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALGASON MASSAGE CREAM 40 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -188,6 +197,12 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>BILASTIGEC 20 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>BILICHOL 24 CAPS</t>
   </si>
   <si>
@@ -206,6 +221,15 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>BORGASONE 0.1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -374,9 +398,6 @@
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>180.0000</t>
   </si>
   <si>
@@ -545,6 +566,24 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MEBO SEA 25MG CREAM</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -608,6 +647,15 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -617,9 +665,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -650,6 +695,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -752,6 +806,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -764,12 +821,6 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -866,12 +917,6 @@
     <t>بلسم صانسيلك كبير 350ملل</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -884,9 +929,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -974,7 +1016,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 7:48 PM</t>
+    <t>Tuesday, 5 August, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1665,7 +1707,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1674,14 +1716,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1698,7 +1740,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1707,14 +1749,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1747,7 +1789,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1757,14 +1799,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1773,14 +1815,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1790,14 +1832,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1806,14 +1848,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1830,7 +1872,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1846,24 +1888,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1872,31 +1914,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1922,14 +1964,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1938,14 +1980,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1962,7 +2004,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1971,14 +2013,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1988,14 +2030,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2004,14 +2046,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2028,7 +2070,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2044,7 +2086,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2054,14 +2096,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2070,14 +2112,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2087,14 +2129,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2103,14 +2145,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2120,14 +2162,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2136,14 +2178,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2153,14 +2195,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2169,28 +2211,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2202,14 +2244,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2219,14 +2261,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2235,14 +2277,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2252,14 +2294,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2268,31 +2310,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2301,14 +2343,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,14 +2360,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2334,14 +2376,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,14 +2393,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2367,14 +2409,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2384,14 +2426,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2400,14 +2442,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,14 +2459,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2440,7 +2482,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2450,14 +2492,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2466,14 +2508,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2483,14 +2525,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2499,14 +2541,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,14 +2558,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2532,14 +2574,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,14 +2591,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2565,14 +2607,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,11 +2624,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2598,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2657,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2638,7 +2680,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2655,7 +2697,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2671,7 +2713,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2688,7 +2730,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2704,7 +2746,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,14 +2756,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2730,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,11 +2789,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2763,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2822,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2796,14 +2838,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2813,11 +2855,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2829,14 +2871,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,14 +2888,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2862,31 +2904,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2895,14 +2937,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,14 +2954,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2928,14 +2970,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2987,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2968,13 +3010,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2982,10 +3024,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,14 +3036,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3018,7 +3060,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3034,7 +3076,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3044,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,14 +3119,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3133,7 +3175,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3150,7 +3192,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3166,24 +3208,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3199,7 +3241,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3216,7 +3258,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3242,14 +3284,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,31 +3300,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3298,13 +3340,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3312,10 +3354,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,11 +3383,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3357,14 +3399,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3390,28 +3432,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3423,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3440,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3463,7 +3505,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3496,7 +3538,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3522,31 +3564,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,31 +3597,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3680,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3671,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3746,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,31 +3762,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3753,7 +3795,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3766,15 +3808,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3786,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,11 +3845,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3826,7 +3868,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3878,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3869,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3944,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3939,7 +3981,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3951,31 +3993,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4050,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4083,14 +4125,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4116,28 +4158,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4149,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4208,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4189,7 +4231,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,14 +4274,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4281,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4347,31 +4389,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,11 +4472,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4446,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,11 +4505,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4479,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4618,7 +4660,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4670,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4644,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4743,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,11 +4802,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4776,31 +4818,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,31 +4851,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,31 +4884,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,31 +4917,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4915,24 +4957,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,31 +4983,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,31 +5016,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5007,31 +5049,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,31 +5082,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5080,24 +5122,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>302</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5106,31 +5148,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>281</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5139,20 +5181,20 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5160,10 +5202,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>307</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,31 +5214,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5212,24 +5254,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5238,31 +5280,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5271,31 +5313,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5304,31 +5346,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5337,31 +5379,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>210</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5370,31 +5412,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5403,31 +5445,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5436,66 +5478,297 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6147.5900000000001</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>321</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>322</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>323</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>324</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>310</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>45</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>325</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>327</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>37</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>45</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>299</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>328</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>37</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>45</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>311</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>329</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>37</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>45</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>299</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>330</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>48</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>45</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>229</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>331</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>332</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>45</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>299</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>333</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>334</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>45</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>41</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6549.5900000000001</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>335</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>336</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>337</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6089,10 +6362,45 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BORGASONE 0.1% OINT. 20 GM</t>
   </si>
   <si>
@@ -335,6 +347,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -584,6 +605,24 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -668,9 +707,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>108.0000</t>
   </si>
   <si>
@@ -686,15 +722,21 @@
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
   </si>
   <si>
     <t>120.0000</t>
   </si>
   <si>
+    <t>PROCYKINOL 5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -1016,7 +1058,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 8:29 PM</t>
+    <t>Tuesday, 5 August, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2185,7 +2227,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2195,11 +2237,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2211,14 +2253,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2235,7 +2277,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2268,7 +2310,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2284,7 +2326,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2294,14 +2336,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2310,31 +2352,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2356,7 +2398,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2367,7 +2409,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2383,7 +2425,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2393,14 +2435,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2409,14 +2451,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2426,11 +2468,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2442,7 +2484,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2459,14 +2501,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2475,14 +2517,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2499,7 +2541,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2515,7 +2557,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2525,11 +2567,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2541,14 +2583,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2558,14 +2600,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2574,14 +2616,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2591,14 +2633,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2607,14 +2649,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2624,14 +2666,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2640,14 +2682,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2657,14 +2699,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2673,14 +2715,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2697,7 +2739,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2713,7 +2755,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,14 +2765,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2739,14 +2781,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2756,14 +2798,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2772,14 +2814,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2789,14 +2831,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2805,14 +2847,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,14 +2864,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2838,14 +2880,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2855,11 +2897,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2871,14 +2913,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2888,14 +2930,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2904,7 +2946,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2921,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,14 +2979,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,11 +2996,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2970,14 +3012,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2994,7 +3036,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3010,13 +3052,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3043,7 +3085,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3053,14 +3095,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3069,31 +3111,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3102,7 +3144,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3119,11 +3161,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3135,14 +3177,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,14 +3194,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3168,7 +3210,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3185,11 +3227,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3208,7 +3250,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,14 +3260,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3234,14 +3276,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,11 +3293,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3267,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3284,11 +3326,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3300,28 +3342,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3333,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,14 +3392,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3366,31 +3408,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3399,14 +3441,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,14 +3458,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3432,28 +3474,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3465,14 +3507,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,11 +3524,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3498,28 +3540,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3531,14 +3573,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,11 +3590,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3564,31 +3606,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3597,14 +3639,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3614,11 +3656,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3630,7 +3672,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3643,18 +3685,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3663,14 +3705,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3696,14 +3738,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,14 +3755,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3729,14 +3771,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3746,14 +3788,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3762,7 +3804,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3775,18 +3817,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3795,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3812,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3828,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,14 +3887,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3861,7 +3903,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3878,14 +3920,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3894,28 +3936,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3927,14 +3969,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3986,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,14 +4002,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,11 +4019,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3993,28 +4035,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4026,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4059,14 +4101,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,11 +4118,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4092,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4151,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,7 +4167,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4138,15 +4180,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4158,14 +4200,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4217,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,14 +4233,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,11 +4250,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4231,7 +4273,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,14 +4283,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4257,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4274,14 +4316,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4290,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,11 +4349,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4323,14 +4365,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4382,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,7 +4398,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4373,14 +4415,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4396,24 +4438,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4464,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,14 +4481,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4455,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4514,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4530,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4547,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,14 +4580,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4554,28 +4596,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4587,14 +4629,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4646,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4662,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4695,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,11 +4712,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4686,14 +4728,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,11 +4745,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4719,14 +4761,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,11 +4778,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4752,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4877,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4910,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,11 +4943,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4917,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4957,7 +4999,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4983,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,11 +5042,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5016,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5075,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,28 +5091,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5082,28 +5124,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5115,7 +5157,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5128,15 +5170,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5148,28 +5190,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5181,31 +5223,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,14 +5256,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5273,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5247,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,11 +5306,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5280,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,14 +5339,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>196</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,11 +5372,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5346,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,14 +5405,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>316</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,7 +5421,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5396,14 +5438,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>298</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5471,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>321</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,14 +5504,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5478,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5495,14 +5537,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5511,14 +5553,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5528,14 +5570,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>330</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5544,7 +5586,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5561,14 +5603,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>21</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5577,14 +5619,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5594,14 +5636,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5610,14 +5652,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5627,14 +5669,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>225</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5643,14 +5685,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5660,14 +5702,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5676,14 +5718,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5693,11 +5735,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5709,14 +5751,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5726,49 +5768,214 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>342</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>37</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>45</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>325</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>343</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>37</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>45</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>313</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>344</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>48</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>45</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>243</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>345</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>346</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>45</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>313</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>347</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>348</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>45</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>41</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6549.5900000000001</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>335</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>336</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>337</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6967.8000000000002</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>349</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>350</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>351</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6397,10 +6604,35 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -614,6 +614,15 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -1058,7 +1067,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 8:34 PM</t>
+    <t>Tuesday, 5 August, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3745,7 +3754,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3762,7 +3771,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3778,7 +3787,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3792,10 +3801,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3877,7 +3886,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,11 +3929,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>57</v>
@@ -3936,7 +3945,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3949,18 +3958,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,31 +3978,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4009,7 +4018,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4023,7 +4032,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4075,7 +4084,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,11 +4127,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4134,7 +4143,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4167,31 +4176,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4200,24 +4209,24 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4240,7 +4249,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4283,11 +4292,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4299,7 +4308,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4316,7 +4325,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4339,7 +4348,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4372,7 +4381,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4405,7 +4414,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4438,7 +4447,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4504,7 +4513,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4521,7 +4530,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4537,7 +4546,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,14 +4589,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4596,31 +4605,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4636,24 +4645,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,11 +4688,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4702,7 +4711,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4716,7 +4725,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4745,14 +4754,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,11 +4787,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4900,7 +4909,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,11 +4952,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4966,7 +4975,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,11 +4985,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4992,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,14 +5018,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5025,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5042,14 +5051,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5065,7 +5074,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,14 +5084,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,14 +5117,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,7 +5133,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5141,7 +5150,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5164,7 +5173,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,11 +5183,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5190,7 +5199,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5207,11 +5216,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5230,7 +5239,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,11 +5249,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5256,28 +5265,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5296,7 +5305,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,11 +5315,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,11 +5348,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,11 +5381,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>71</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5428,7 +5437,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,14 +5447,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5461,7 +5470,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5487,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,14 +5513,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,14 +5546,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5553,7 +5562,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5570,14 +5579,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>330</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5586,7 +5595,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5603,14 +5612,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,14 +5645,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5678,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,14 +5711,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5718,14 +5727,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,14 +5744,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5758,7 +5767,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,11 +5777,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5784,7 +5793,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5801,11 +5810,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5817,7 +5826,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5834,14 +5843,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5850,14 +5859,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5867,14 +5876,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5883,14 +5892,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>346</v>
+        <v>48</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5900,11 +5909,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5916,14 +5925,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5933,49 +5942,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q135" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>350</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>351</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>45</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>41</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q136" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6967.8000000000002</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>349</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>350</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>351</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7117.8000000000002</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>352</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>353</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>354</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6629,10 +6671,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -1067,7 +1067,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 8:37 PM</t>
+    <t>Tuesday, 5 August, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -848,6 +848,9 @@
     <t>28.00</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -1067,7 +1070,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 8:45 PM</t>
+    <t>Tuesday, 5 August, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4820,14 +4823,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4843,7 +4846,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,14 +4856,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4876,7 +4879,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,14 +4889,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4902,14 +4905,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4922,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4935,14 +4938,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4955,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4975,7 +4978,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,11 +4988,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -5001,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,11 +5021,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -5041,7 +5044,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5067,14 +5070,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5100,14 +5103,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5117,14 +5120,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,14 +5136,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5150,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5166,7 +5169,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5183,11 +5186,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,11 +5219,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5249,11 +5252,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5265,14 +5268,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,11 +5285,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5298,28 +5301,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>93</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5331,14 +5334,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5348,11 +5351,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5364,14 +5367,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5381,11 +5384,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5404,7 +5407,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5414,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5437,7 +5440,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>71</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5447,14 +5450,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5463,14 +5466,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,14 +5483,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,14 +5499,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5516,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5529,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,14 +5549,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5569,7 +5572,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,14 +5582,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5612,14 +5615,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>333</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5628,7 +5631,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5645,14 +5648,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5668,7 +5671,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5681,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,14 +5697,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,14 +5714,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5734,7 +5737,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>21</v>
+        <v>339</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5744,14 +5747,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5767,7 +5770,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,14 +5780,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5793,14 +5796,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5810,11 +5813,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5843,11 +5846,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5876,14 +5879,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5899,7 +5902,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5909,14 +5912,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5932,7 +5935,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>349</v>
+        <v>48</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5942,11 +5945,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5958,14 +5961,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5975,49 +5978,82 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q136" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>351</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>352</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>45</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>41</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q137" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7117.8000000000002</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>352</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7140.8000000000002</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>353</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
         <v>354</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>355</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6676,10 +6712,15 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -1070,7 +1070,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 8:49 PM</t>
+    <t>Tuesday, 5 August, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -407,6 +407,15 @@
     <t>11:1</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -809,6 +818,9 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -1070,7 +1082,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 8:51 PM</t>
+    <t>Tuesday, 5 August, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2899,7 +2911,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2916,7 +2928,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2932,7 +2944,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2975,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2998,7 +3010,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3015,7 +3027,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3031,7 +3043,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3097,7 +3109,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3107,14 +3119,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3123,20 +3135,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3147,7 +3159,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3163,13 +3175,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3206,14 +3218,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3222,7 +3234,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3239,14 +3251,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3255,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3276,10 +3288,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3288,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3312,7 +3324,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3328,7 +3340,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3338,11 +3350,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3354,14 +3366,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3371,11 +3383,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3427,21 +3439,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3453,31 +3465,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3493,7 +3505,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3536,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3559,13 +3571,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3573,10 +3585,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3585,31 +3597,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3625,7 +3637,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3642,7 +3654,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3658,7 +3670,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3675,7 +3687,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3697,7 +3709,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3730,7 +3742,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3741,7 +3753,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3757,7 +3769,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3774,7 +3786,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3790,7 +3802,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3807,7 +3819,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3823,7 +3835,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3837,10 +3849,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3849,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3866,14 +3878,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3882,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3899,14 +3911,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3922,7 +3934,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3932,14 +3944,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3948,14 +3960,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3965,11 +3977,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>57</v>
@@ -3981,7 +3993,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3994,18 +4006,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4014,31 +4026,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4054,7 +4066,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4068,7 +4080,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4080,14 +4092,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4120,7 +4132,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4163,11 +4175,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4179,7 +4191,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4196,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4212,31 +4224,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4245,24 +4257,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4285,7 +4297,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,11 +4307,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4328,11 +4340,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4344,7 +4356,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4361,7 +4373,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4384,7 +4396,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4417,7 +4429,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4450,7 +4462,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4460,14 +4472,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4483,7 +4495,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,14 +4505,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4509,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4549,7 +4561,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4566,7 +4578,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4582,7 +4594,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4592,14 +4604,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4608,14 +4620,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4625,14 +4637,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4641,28 +4653,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4674,14 +4686,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4691,14 +4703,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4714,13 +4726,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4731,7 +4743,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4747,7 +4759,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4757,11 +4769,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4773,14 +4785,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4813,7 +4825,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,11 +4835,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4839,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4856,11 +4868,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4872,14 +4884,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4889,14 +4901,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4905,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4938,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4955,14 +4967,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4971,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4988,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5011,7 +5023,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5028,7 +5040,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5044,7 +5056,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,11 +5066,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5077,7 +5089,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5087,14 +5099,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5103,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,11 +5132,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5136,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5153,14 +5165,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5169,7 +5181,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5186,11 +5198,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5219,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5235,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5252,11 +5264,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5275,7 +5287,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5308,7 +5320,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5318,11 +5330,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5334,28 +5346,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5367,28 +5379,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5400,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5417,11 +5429,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5433,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5450,14 +5462,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5483,14 +5495,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>199</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5506,7 +5518,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5516,14 +5528,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5532,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5549,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5565,14 +5577,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5582,14 +5594,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5598,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5615,11 +5627,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5631,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,14 +5660,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>334</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5664,7 +5676,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5681,14 +5693,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>316</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5697,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5714,14 +5726,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q128" s="12">
         <v>338</v>
-      </c>
-      <c t="s" r="Q128" s="12">
-        <v>339</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5730,14 +5742,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5747,14 +5759,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>318</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>21</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5763,14 +5775,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5780,14 +5792,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>246</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5796,14 +5808,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5813,11 +5825,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5836,7 +5848,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5846,14 +5858,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5869,7 +5881,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5879,11 +5891,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5895,7 +5907,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5912,14 +5924,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5928,14 +5940,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5945,11 +5957,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5961,14 +5973,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5978,14 +5990,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -5994,14 +6006,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>352</v>
+        <v>48</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6011,49 +6023,115 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q137" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>353</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>354</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>45</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>321</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>355</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>356</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>45</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>41</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q139" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7140.8000000000002</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>353</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>354</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
-        <v>355</v>
-      </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>7216.8000000000002</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>357</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>358</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>359</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6717,10 +6795,20 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 8:52 PM</t>
+    <t>Tuesday, 5 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -275,693 +284,708 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
+    <t>DIBAVALLY PLUS 50/1000MG 28 TABS.</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
+    <t>DIFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAMOTAK 40MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FORTYMOX 0.5% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MEBO SEA 25MG CREAM</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>76.5600</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>PROCYKINOL 5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>207.4800</t>
+  </si>
+  <si>
+    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8444:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>2.1000</t>
-  </si>
-  <si>
-    <t>DIBAVALLY PLUS 50/1000MG 28 TABS.</t>
-  </si>
-  <si>
-    <t>184.00</t>
-  </si>
-  <si>
-    <t>184.0000</t>
-  </si>
-  <si>
-    <t>DIFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>111.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>11:1</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 5MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAMOTAK 40MG 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FORTYMOX 0.5% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GAST-REG 50MG/5ML I.V./I.M. 3 AMP</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>8.9100</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>HEALSEC 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>LAMIFEN 250MG 14 TAB</t>
-  </si>
-  <si>
-    <t>112.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MEBO SEA 25MG CREAM</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>76.5600</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>OPTIFLOX 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>PROCYKINOL 5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>SHOMA CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>207.4800</t>
-  </si>
-  <si>
-    <t>STARVILLE ROLL-ON FRAGRANCE FREE</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>TRILLERG EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>57.7500</t>
-  </si>
-  <si>
-    <t>VENTOCOUGH SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>VONASPIRE 20MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8444:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ZESTRIL 20MG 10 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -971,9 +995,6 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -1082,7 +1103,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:02 PM</t>
+    <t>Tuesday, 5 August, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2103,7 +2124,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2218,7 +2239,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2235,7 +2256,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2251,7 +2272,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2317,7 +2338,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2409,31 +2430,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2442,31 +2463,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2525,11 +2546,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2541,7 +2562,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2624,7 +2645,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2647,7 +2668,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2680,7 +2701,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2789,11 +2810,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2855,11 +2876,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2911,7 +2932,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2954,14 +2975,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3010,7 +3031,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3102,7 +3123,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3119,11 +3140,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3168,31 +3189,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3201,28 +3222,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3234,7 +3255,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3251,14 +3272,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3267,7 +3288,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3284,11 +3305,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3333,7 +3354,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3416,11 +3437,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3449,11 +3470,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3465,28 +3486,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3515,14 +3536,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3531,31 +3552,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3597,28 +3618,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3630,14 +3651,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3647,11 +3668,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3663,28 +3684,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3703,7 +3724,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3736,24 +3757,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3769,7 +3790,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3802,7 +3823,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3835,13 +3856,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3852,7 +3873,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3868,7 +3889,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3882,10 +3903,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3911,14 +3932,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3944,14 +3965,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3960,14 +3981,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3977,14 +3998,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3993,7 +4014,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4010,14 +4031,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4026,28 +4047,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4076,14 +4097,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4092,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4109,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4125,7 +4146,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4138,11 +4159,11 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4165,7 +4186,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4182,7 +4203,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4198,7 +4219,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4208,14 +4229,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4224,14 +4245,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4241,14 +4262,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4257,28 +4278,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4290,14 +4311,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4307,11 +4328,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4340,14 +4361,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4356,28 +4377,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4389,7 +4410,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4406,11 +4427,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4422,14 +4443,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,11 +4460,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4462,7 +4483,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4488,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4505,11 +4526,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4521,14 +4542,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4538,14 +4559,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4554,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4587,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4604,11 +4625,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4620,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,7 +4658,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4660,7 +4681,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4670,14 +4691,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4686,14 +4707,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4719,31 +4740,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4752,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,14 +4790,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4785,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4818,31 +4839,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4851,14 +4872,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4889,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4917,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4955,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4950,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4967,14 +4988,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4983,14 +5004,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5000,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5016,14 +5037,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,14 +5054,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5049,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5066,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5082,14 +5103,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,14 +5120,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5115,14 +5136,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,14 +5153,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5148,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5181,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,11 +5219,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5214,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,14 +5252,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5247,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,14 +5285,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5280,7 +5301,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5297,11 +5318,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5313,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5330,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5346,14 +5367,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5363,7 +5384,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>58</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5386,7 +5407,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,11 +5417,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5412,28 +5433,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5445,28 +5466,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5478,28 +5499,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5511,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>71</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>91</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,14 +5582,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5577,14 +5598,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,11 +5615,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>208</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5617,7 +5638,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5627,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5643,14 +5664,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,7 +5681,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5676,7 +5697,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5693,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5709,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,14 +5747,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>111</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>338</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5742,14 +5763,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,14 +5780,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>320</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5775,14 +5796,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5792,14 +5813,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>343</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5815,7 +5836,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5825,14 +5846,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>21</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5841,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5858,14 +5879,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5874,14 +5895,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5891,14 +5912,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>21</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5907,14 +5928,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5924,11 +5945,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5940,14 +5961,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5957,14 +5978,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5973,14 +5994,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5990,14 +6011,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6006,14 +6027,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6023,11 +6044,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
@@ -6039,14 +6060,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>354</v>
+        <v>37</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6056,11 +6077,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>21</v>
@@ -6072,14 +6093,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6089,49 +6110,148 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q139" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>359</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>48</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>45</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>257</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>360</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>361</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>45</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>328</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>362</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>363</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>45</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>41</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q142" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>7216.8000000000002</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>357</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
-        <v>358</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
-        <v>359</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>7260.8000000000002</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>364</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>365</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>366</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6805,10 +6925,25 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -1103,7 +1103,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:19 PM</t>
+    <t>Tuesday, 5 August, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -656,7 +656,7 @@
     <t>135.00</t>
   </si>
   <si>
-    <t>135.0000</t>
+    <t>270.0000</t>
   </si>
   <si>
     <t>MILGA 40 TABLETS</t>
@@ -1103,7 +1103,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:28 PM</t>
+    <t>Tuesday, 5 August, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3922,7 +3922,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3939,7 +3939,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -6221,7 +6221,7 @@
     </row>
     <row r="143" ht="24.75" customHeight="1">
       <c r="P143" s="13">
-        <v>7260.8000000000002</v>
+        <v>7395.8000000000002</v>
       </c>
       <c r="Q143" s="13"/>
     </row>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -893,6 +893,9 @@
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -977,9 +980,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -1103,7 +1103,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:34 PM</t>
+    <t>Tuesday, 5 August, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5077,7 +5077,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>48</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5153,11 +5153,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5219,11 +5219,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5268,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5318,11 +5318,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5334,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5417,11 +5417,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5483,11 +5483,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5499,14 +5499,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
@@ -5902,7 +5902,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>12</v>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -194,6 +203,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -410,7 +428,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:1</t>
+    <t>10:3</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -659,6 +683,15 @@
     <t>270.0000</t>
   </si>
   <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -764,6 +797,18 @@
     <t>PANTAZOL 40MG VIAL I.V.</t>
   </si>
   <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>POLYFRESH EXTRA EYE DROPS 30 X 0.4 ML SDU</t>
   </si>
   <si>
@@ -824,9 +869,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>SHOMA CREAM 60 GM</t>
   </si>
   <si>
@@ -893,9 +935,6 @@
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -944,12 +983,15 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8444:0</t>
+    <t>8443:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
   </si>
   <si>
@@ -971,12 +1013,6 @@
     <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -986,12 +1022,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -1046,12 +1076,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>48:0</t>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>49:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -1103,7 +1139,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:50 PM</t>
+    <t>Tuesday, 5 August, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2074,7 +2110,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2084,14 +2120,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2100,14 +2136,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2157,7 +2193,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2166,14 +2202,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2183,14 +2219,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2216,14 +2252,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2239,7 +2275,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2249,14 +2285,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2265,14 +2301,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2282,7 +2318,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2305,7 +2341,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2315,11 +2351,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2331,14 +2367,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2348,14 +2384,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2364,14 +2400,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2381,14 +2417,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2397,14 +2433,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2414,14 +2450,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2430,14 +2466,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2447,7 +2483,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2476,7 +2512,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2484,7 +2520,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2496,14 +2532,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2513,14 +2549,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2529,20 +2565,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2550,10 +2586,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2562,14 +2598,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2586,7 +2622,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2602,7 +2638,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2619,7 +2655,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2635,7 +2671,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2645,11 +2681,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2661,14 +2697,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2678,14 +2714,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2701,7 +2737,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2711,14 +2747,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2727,14 +2763,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2744,14 +2780,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2760,14 +2796,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2777,14 +2813,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2793,14 +2829,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2810,14 +2846,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2826,14 +2862,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2843,14 +2879,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2859,14 +2895,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2876,14 +2912,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2892,14 +2928,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2916,7 +2952,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2932,7 +2968,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2942,14 +2978,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2958,7 +2994,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2975,11 +3011,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2991,14 +3027,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3008,14 +3044,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3024,14 +3060,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3041,14 +3077,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3057,14 +3093,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3074,11 +3110,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -3090,14 +3126,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3107,14 +3143,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3123,7 +3159,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3140,14 +3176,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3156,14 +3192,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3173,11 +3209,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3189,14 +3225,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3206,14 +3242,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3222,28 +3258,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3255,14 +3291,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3272,14 +3308,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3288,28 +3324,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3321,7 +3357,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3338,14 +3374,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3354,7 +3390,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3371,11 +3407,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3387,14 +3423,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3404,14 +3440,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3420,7 +3456,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3437,11 +3473,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3453,14 +3489,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3470,14 +3506,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3486,14 +3522,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3503,11 +3539,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3519,14 +3555,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3536,11 +3572,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3552,28 +3588,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3585,14 +3621,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3602,14 +3638,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3618,31 +3654,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3651,14 +3687,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3668,14 +3704,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3684,28 +3720,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3717,14 +3753,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3734,11 +3770,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3750,28 +3786,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3783,14 +3819,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3800,14 +3836,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3816,14 +3852,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3833,14 +3869,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3849,31 +3885,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3882,7 +3918,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3899,14 +3935,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3915,31 +3951,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3948,14 +3984,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3965,11 +4001,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3981,14 +4017,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3998,14 +4034,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4014,14 +4050,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4031,14 +4067,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4047,14 +4083,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4064,14 +4100,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4080,14 +4116,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4097,14 +4133,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4113,7 +4149,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4130,14 +4166,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4146,28 +4182,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4179,14 +4215,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4196,14 +4232,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4212,14 +4248,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4229,14 +4265,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4245,7 +4281,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4258,15 +4294,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4278,14 +4314,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4295,14 +4331,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4311,14 +4347,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4328,14 +4364,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4344,14 +4380,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4361,14 +4397,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4377,28 +4413,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4410,14 +4446,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4427,11 +4463,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4443,14 +4479,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4460,14 +4496,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4476,28 +4512,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4509,7 +4545,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4526,11 +4562,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4542,14 +4578,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4559,11 +4595,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4575,31 +4611,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4608,14 +4644,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4625,11 +4661,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4641,14 +4677,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4658,14 +4694,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4674,14 +4710,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4691,14 +4727,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4707,14 +4743,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4724,14 +4760,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4740,14 +4776,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4757,14 +4793,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4773,14 +4809,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4790,14 +4826,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4806,14 +4842,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4823,14 +4859,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4839,7 +4875,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4852,15 +4888,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4872,14 +4908,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4889,14 +4925,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4905,14 +4941,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4922,14 +4958,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4938,14 +4974,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4955,14 +4991,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4971,28 +5007,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -5004,14 +5040,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5025,7 +5061,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -5037,14 +5073,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5054,14 +5090,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5070,14 +5106,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5087,14 +5123,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5103,14 +5139,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5120,14 +5156,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5136,14 +5172,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5153,11 +5189,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5169,7 +5205,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5186,11 +5222,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5202,14 +5238,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5219,14 +5255,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5235,14 +5271,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5252,14 +5288,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5268,14 +5304,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>113</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5285,11 +5321,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5301,14 +5337,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5318,11 +5354,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5334,14 +5370,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5351,14 +5387,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5367,14 +5403,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5384,11 +5420,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5400,14 +5436,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5417,14 +5453,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5433,14 +5469,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5450,11 +5486,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5466,14 +5502,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5483,14 +5519,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5499,14 +5535,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5516,11 +5552,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>113</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5532,28 +5568,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5565,28 +5601,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5598,7 +5634,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5611,15 +5647,15 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5631,31 +5667,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5664,14 +5700,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5681,14 +5717,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5697,14 +5733,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5714,11 +5750,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5730,14 +5766,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>339</v>
+        <v>21</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5747,11 +5783,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>341</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5763,14 +5799,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5780,14 +5816,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5796,14 +5832,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5813,14 +5849,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5829,7 +5865,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5846,14 +5882,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5862,14 +5898,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>37</v>
+        <v>349</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5879,14 +5915,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>197</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5895,14 +5931,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5912,14 +5948,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>350</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5928,14 +5964,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5945,11 +5981,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5961,14 +5997,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5978,14 +6014,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>12</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5994,14 +6030,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6011,14 +6047,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>21</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6027,14 +6063,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6044,14 +6080,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>21</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6060,14 +6096,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6077,11 +6113,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>21</v>
@@ -6093,14 +6129,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6110,14 +6146,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6126,14 +6162,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>48</v>
+        <v>349</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6143,11 +6179,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>258</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>21</v>
@@ -6159,14 +6195,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6176,11 +6212,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>21</v>
@@ -6192,14 +6228,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6209,49 +6245,181 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q142" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>370</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>37</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>45</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>338</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>371</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>48</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>45</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>272</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>372</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>373</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>45</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>338</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>374</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>375</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>45</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>41</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q146" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="24.75" customHeight="1">
-      <c r="P143" s="13">
-        <v>7395.8000000000002</v>
-      </c>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c t="s" r="A144" s="14">
-        <v>364</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c t="s" r="G144" s="15">
-        <v>365</v>
-      </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c t="s" r="K144" s="17">
-        <v>366</v>
-      </c>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>7721.6400000000003</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
+        <v>376</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>377</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>378</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="692">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6940,10 +7108,30 @@
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
     <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -1115,6 +1115,12 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
@@ -1136,10 +1142,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 5 August, 2025 9:54 PM</t>
+    <t>Tuesday, 5 August, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -6202,7 +6205,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>37</v>
+        <v>369</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6228,7 +6231,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6245,11 +6248,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>21</v>
@@ -6261,7 +6264,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6278,14 +6281,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6294,14 +6297,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6311,14 +6314,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6327,14 +6330,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>373</v>
+        <v>48</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6344,11 +6347,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>21</v>
@@ -6377,49 +6380,82 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>376</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>369</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>45</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>41</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
         <v>328</v>
       </c>
-      <c t="s" r="Q146" s="12">
+      <c t="s" r="Q147" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="147" ht="25.5" customHeight="1">
-      <c r="P147" s="13">
-        <v>7721.6400000000003</v>
-      </c>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
-        <v>376</v>
-      </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="P148" s="13">
+        <v>7736.6400000000003</v>
+      </c>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
         <v>377</v>
       </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
         <v>378</v>
       </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
+        <v>379</v>
+      </c>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7128,10 +7164,15 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -1142,7 +1142,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 9:57 PM</t>
+    <t>Tuesday, 5 August, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -1142,7 +1142,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:02 PM</t>
+    <t>Tuesday, 5 August, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-05_00-00.xlsx
+++ b/DaySale_2025-08-05_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>CLINDASOL 1% TOPICAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -416,6 +425,15 @@
     <t>184.0000</t>
   </si>
   <si>
+    <t>DIDI GEL</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
     <t>DIFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -521,9 +539,6 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
     <t>17.0000</t>
   </si>
   <si>
@@ -614,6 +629,15 @@
     <t>112.0000</t>
   </si>
   <si>
+    <t>LAPPY-SPOT CLENSEAR</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -953,6 +977,9 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1142,7 +1169,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Tuesday, 5 August, 2025 10:05 PM</t>
+    <t>Tuesday, 5 August, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2641,7 +2668,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2658,7 +2685,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2674,7 +2701,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2724,7 +2751,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2740,7 +2767,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2783,11 +2810,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2816,14 +2843,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2849,7 +2876,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2872,7 +2899,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2948,11 +2975,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2988,7 +3015,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3004,7 +3031,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3037,24 +3064,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3063,7 +3090,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3080,11 +3107,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3113,14 +3140,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3136,7 +3163,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3179,11 +3206,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3252,7 +3279,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3268,7 +3295,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3301,7 +3328,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3311,14 +3338,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3327,28 +3354,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3384,7 +3411,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3400,13 +3427,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3459,7 +3486,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3476,11 +3503,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3509,14 +3536,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3525,7 +3552,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3542,11 +3569,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3575,14 +3602,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3608,11 +3635,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3641,11 +3668,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3657,28 +3684,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3707,14 +3734,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3723,31 +3750,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3763,7 +3790,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3780,7 +3807,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3796,21 +3823,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3829,7 +3856,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3862,24 +3889,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3895,13 +3922,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3909,7 +3936,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3921,14 +3948,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3938,11 +3965,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>